--- a/api_project_3/test_data/API_TEST.xlsx
+++ b/api_project_3/test_data/API_TEST.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
   <si>
     <t>Case_id</t>
   </si>
@@ -49,241 +49,247 @@
     <t>ActualResult</t>
   </si>
   <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>正常登录</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13888888886","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":None,"msg":"登录成功"}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '登录成功'}</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>密码为空进行登录</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13888888886","pwd":""}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":None,"msg":"密码不能为空"}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20103', 'data': None, 'msg': '密码不能为空'}</t>
+  </si>
+  <si>
+    <t>手机号为空进行登录</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":None,"msg":"手机号不能为空"}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20103', 'data': None, 'msg': '手机号不能为空'}</t>
+  </si>
+  <si>
+    <t>密码与手机号同时为空进行登录</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"","pwd":""}</t>
+  </si>
+  <si>
+    <t>使用错误的手机号进行登录</t>
+  </si>
+  <si>
+    <t>http:test.lemonban.com/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"137786","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20111","data":None,"msg":"用户名或密码错误"}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
+  </si>
+  <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>正常登录</t>
-  </si>
-  <si>
-    <t>GET</t>
+    <t>register</t>
+  </si>
+  <si>
+    <t>正常注册</t>
+  </si>
+  <si>
+    <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${mobile}",'pwd':"123456"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":None,"msg":"注册成功"}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '注册成功'}</t>
+  </si>
+  <si>
+    <t>输入已经注册的手机号</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20110","data":None,"msg":"手机号码已被注册"}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20110', 'data': None, 'msg': '手机号码已被注册'}</t>
+  </si>
+  <si>
+    <t>手机号码为空注册</t>
+  </si>
+  <si>
+    <t>密码为空进行注册</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13977887676","pwd":""}</t>
+  </si>
+  <si>
+    <t>输入小于六位的手机号注册</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13577","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20109","data":None,"msg":"手机号码格式不正确"}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20109', 'data': None, 'msg': '手机号码格式不正确'}</t>
+  </si>
+  <si>
+    <t>输入大于11位的手机号进行注册</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"135778876763","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>输入带有特殊字符的手机号注册</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"135778@7#73","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>TestResult</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"#t_mobile#","pwd":"#t_pwd#"}</t>
+  </si>
+  <si>
+    <t>recharge</t>
+  </si>
+  <si>
+    <t>充值成功</t>
+  </si>
+  <si>
+    <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"#t_mobile#","amount":"500"}</t>
+  </si>
+  <si>
+    <t>{'sql':'SELECT LeaveAmount from member WHERE MobilePhone = 13999099933'}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1126527,"leaveamount":"addmoney","mobilephone":"13999099933","pwd":"E10ADC3949BA59ABBE56E057F20F883E","regname":"小蜜蜂","regtime":"2019-03-22 00:07:37.0","type":"1"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '10001', 'data': {'id': 1126527, 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '13999099933', 'leaveamount': '31600.00', 'type': '1', 'regtime': '2019-03-22 00:07:37.0'}, 'msg': '充值成功'}</t>
+  </si>
+  <si>
+    <t>手机号为空进行充值</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"","amount":"100"}</t>
+  </si>
+  <si>
+    <t>使用未注册过的手机号进行充值</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13888881111","amount":"200"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20104","data":None,"msg":"此手机号对应的会员不存在"}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20104', 'data': None, 'msg': '此手机号对应的会员不存在'}</t>
+  </si>
+  <si>
+    <t>使用错误格式的手机号，进行充值</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"12dd","amount":"200"}</t>
+  </si>
+  <si>
+    <t>未输入金额进行充值</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"#t_mobile#","amount":""}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20115","data":None,"msg":"请输入金额"}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20115', 'data': None, 'msg': '请输入金额'}</t>
+  </si>
+  <si>
+    <t>充值的金额小数位数超过2位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"#t_mobile#","amount":"102.009"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20116","data":None,"msg":"输入金额的金额小数不能超过两位"}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20116', 'data': None, 'msg': '输入金额的金额小数不能超过两位'}</t>
+  </si>
+  <si>
+    <t>充值的金额为负数</t>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/recharge</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"#t_mobile#","amount":"-12"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20117","data":None,"msg":"请输入范围在0到50万之间的正数金额"}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20117', 'data': None, 'msg': '请输入范围在0到50万之间的正数金额'}</t>
+  </si>
+  <si>
+    <t>充值的金额非数字类型</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"#t_mobile#","amount":"dd"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20118","data":None,"msg":"请输入数字"}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20118', 'data': None, 'msg': '请输入数字'}</t>
   </si>
   <si>
     <t>http://47.107.168.87:8080/futureloan/mvc/api/member/login</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13888888886","pwd":"123456"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":None,"msg":"登录成功"}</t>
-  </si>
-  <si>
-    <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '登录成功'}</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>密码为空进行登录</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13888888886","pwd":""}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":None,"msg":"密码不能为空"}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'code': '20103', 'data': None, 'msg': '密码不能为空'}</t>
-  </si>
-  <si>
-    <t>手机号为空进行登录</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"","pwd":"123456"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":None,"msg":"手机号不能为空"}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'code': '20103', 'data': None, 'msg': '手机号不能为空'}</t>
-  </si>
-  <si>
-    <t>密码与手机号同时为空进行登录</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"","pwd":""}</t>
-  </si>
-  <si>
-    <t>使用错误的手机号进行登录</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"137786","pwd":"123456"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20111","data":None,"msg":"用户名或密码错误"}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
-  </si>
-  <si>
-    <t>tel</t>
-  </si>
-  <si>
-    <t>leaveamount</t>
-  </si>
-  <si>
-    <t>31600.00</t>
-  </si>
-  <si>
-    <t>register</t>
-  </si>
-  <si>
-    <t>正常注册</t>
-  </si>
-  <si>
-    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/register</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"tel",'pwd':"123456"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":None,"msg":"注册成功"}</t>
-  </si>
-  <si>
-    <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '注册成功'}</t>
-  </si>
-  <si>
-    <t>输入已经注册的手机号</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20110","data":None,"msg":"手机号码已被注册"}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'code': '20110', 'data': None, 'msg': '手机号码已被注册'}</t>
-  </si>
-  <si>
-    <t>手机号码为空注册</t>
-  </si>
-  <si>
-    <t>密码为空进行注册</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13977887676","pwd":""}</t>
-  </si>
-  <si>
-    <t>输入小于六位的手机号注册</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13577","pwd":"123456"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20109","data":None,"msg":"手机号码格式不正确"}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'code': '20109', 'data': None, 'msg': '手机号码格式不正确'}</t>
-  </si>
-  <si>
-    <t>输入大于11位的手机号进行注册</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"135778876763","pwd":"123456"}</t>
-  </si>
-  <si>
-    <t>输入带有特殊字符的手机号注册</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"135778@7#73","pwd":"123456"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"#t_mobile#","pwd":"#t_pwd#"}</t>
-  </si>
-  <si>
-    <t>recharge</t>
-  </si>
-  <si>
-    <t>充值成功</t>
-  </si>
-  <si>
-    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/recharge</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"#t_mobile#","amount":"500"}</t>
-  </si>
-  <si>
-    <t>{'sql':'SELECT LeaveAmount from member WHERE MobilePhone = 13999099933'}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1126527,"leaveamount":"addmoney","mobilephone":"13999099933","pwd":"E10ADC3949BA59ABBE56E057F20F883E","regname":"小蜜蜂","regtime":"2019-03-22 00:07:37.0","type":"1"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{'status': 1, 'code': '10001', 'data': {'id': 1126527, 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '13999099933', 'leaveamount': '31600.00', 'type': '1', 'regtime': '2019-03-22 00:07:37.0'}, 'msg': '充值成功'}</t>
-  </si>
-  <si>
-    <t>手机号为空进行充值</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"","amount":"100"}</t>
-  </si>
-  <si>
-    <t>使用未注册过的手机号进行充值</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13888881111","amount":"200"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20104","data":None,"msg":"此手机号对应的会员不存在"}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'code': '20104', 'data': None, 'msg': '此手机号对应的会员不存在'}</t>
-  </si>
-  <si>
-    <t>使用错误格式的手机号，进行充值</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"12dd","amount":"200"}</t>
-  </si>
-  <si>
-    <t>未输入金额进行充值</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"#t_mobile#","amount":""}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20115","data":None,"msg":"请输入金额"}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'code': '20115', 'data': None, 'msg': '请输入金额'}</t>
-  </si>
-  <si>
-    <t>充值的金额小数位数超过2位</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"#t_mobile#","amount":"102.009"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20116","data":None,"msg":"输入金额的金额小数不能超过两位"}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'code': '20116', 'data': None, 'msg': '输入金额的金额小数不能超过两位'}</t>
-  </si>
-  <si>
-    <t>充值的金额为负数</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"#t_mobile#","amount":"-12"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20117","data":None,"msg":"请输入范围在0到50万之间的正数金额"}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'code': '20117', 'data': None, 'msg': '请输入范围在0到50万之间的正数金额'}</t>
-  </si>
-  <si>
-    <t>充值的金额非数字类型</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"#t_mobile#","amount":"dd"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20118","data":None,"msg":"请输入数字"}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'code': '20118', 'data': None, 'msg': '请输入数字'}</t>
   </si>
   <si>
     <t>{"mobilephone":"13888888889","pwd":"123456"}</t>
@@ -507,7 +513,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="宋体"/>
       <family val="2"/>
@@ -521,12 +527,6 @@
       <family val="3"/>
       <sz val="9"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <color rgb="FF6A8759"/>
-      <sz val="12"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -596,9 +596,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -622,25 +622,22 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -663,6 +660,10 @@
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -966,8 +967,8 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -975,7 +976,7 @@
     <col customWidth="1" max="1" min="1" style="2" width="9"/>
     <col customWidth="1" max="3" min="3" width="14.125"/>
     <col customWidth="1" max="4" min="4" style="2" width="9"/>
-    <col customWidth="1" max="5" min="5" style="3" width="22.375"/>
+    <col customWidth="1" max="5" min="5" style="1" width="22.375"/>
     <col customWidth="1" max="7" min="6" style="2" width="44.625"/>
     <col customWidth="1" max="8" min="8" style="2" width="33.75"/>
     <col customWidth="1" max="9" min="9" style="3" width="44.5"/>
@@ -994,7 +995,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1026,7 +1027,7 @@
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -1056,7 +1057,7 @@
       <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -1086,7 +1087,7 @@
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -1116,7 +1117,7 @@
       <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1146,18 +1147,18 @@
       <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>13</v>
+      <c r="E6" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="n"/>
       <c r="H6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>17</v>
@@ -1169,7 +1170,7 @@
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="E4" r:id="rId3"/>
     <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="E6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
@@ -1182,31 +1183,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="12.75"/>
+    <col customWidth="1" max="1" min="1" width="17.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="n">
-        <v>13999100063</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="n">
+        <v>13099099916</v>
       </c>
     </row>
   </sheetData>
@@ -1224,7 +1214,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1268,7 +1258,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row customHeight="1" ht="47.25" r="2" spans="1:10">
@@ -1276,26 +1266,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="G2" s="7" t="n"/>
       <c r="H2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>17</v>
@@ -1306,26 +1296,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>38</v>
+      <c r="E3" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="7" t="n"/>
       <c r="H3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>17</v>
@@ -1336,16 +1326,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>38</v>
+      <c r="E4" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>24</v>
@@ -1366,19 +1356,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>38</v>
+      <c r="E5" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="7" t="n"/>
       <c r="H5" s="7" t="s">
@@ -1396,26 +1386,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="G6" s="7" t="n"/>
       <c r="H6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>17</v>
@@ -1426,26 +1416,26 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="G7" s="7" t="n"/>
       <c r="H7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>17</v>
@@ -1456,26 +1446,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>38</v>
+      <c r="E8" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>17</v>
@@ -1483,10 +1473,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1498,8 +1494,8 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1511,6 +1507,7 @@
     <col customWidth="1" max="7" min="6" style="2" width="44.625"/>
     <col customWidth="1" max="8" min="8" style="2" width="52.375"/>
     <col customWidth="1" max="9" min="9" style="3" width="44.5"/>
+    <col customWidth="1" max="10" min="10" width="12.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1542,7 +1539,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="34.5" r="2" s="1" spans="1:10">
@@ -1558,7 +1555,7 @@
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -1588,7 +1585,7 @@
       <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="22" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -1620,7 +1617,7 @@
       <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="22" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -1650,7 +1647,7 @@
       <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="22" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1680,7 +1677,7 @@
       <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="22" t="s">
         <v>59</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -1688,10 +1685,10 @@
       </c>
       <c r="G6" s="7" t="n"/>
       <c r="H6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>17</v>
@@ -1710,7 +1707,7 @@
       <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="22" t="s">
         <v>59</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -1740,7 +1737,7 @@
       <c r="D8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="22" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -1770,18 +1767,18 @@
       <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>59</v>
+      <c r="E9" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>17</v>
@@ -1795,23 +1792,23 @@
         <v>57</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>59</v>
+      <c r="E10" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>17</v>
@@ -1886,7 +1883,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="34.5" r="2" s="1" spans="1:10">
@@ -1902,11 +1899,11 @@
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
+      <c r="E2" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G2" s="7" t="n"/>
       <c r="H2" s="7" t="s">
@@ -1924,29 +1921,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>91</v>
+      <c r="E3" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G3" s="7" t="n"/>
       <c r="H3" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="4" spans="1:10">
@@ -1954,16 +1951,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>91</v>
+      <c r="E4" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>65</v>
@@ -1984,26 +1981,26 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>91</v>
+      <c r="E5" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="n"/>
       <c r="H5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>17</v>
@@ -2014,26 +2011,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>91</v>
+      <c r="E6" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G6" s="7" t="n"/>
       <c r="H6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>17</v>
@@ -2044,19 +2041,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>91</v>
+      <c r="E7" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G7" s="7" t="n"/>
       <c r="H7" s="7" t="s">
@@ -2074,26 +2071,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>91</v>
+        <v>107</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>17</v>
@@ -2123,7 +2120,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -2167,7 +2164,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="34.5" r="2" s="1" spans="1:10">
@@ -2183,11 +2180,11 @@
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
+      <c r="E2" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="7" t="n"/>
       <c r="H2" s="7" t="s">
@@ -2205,28 +2202,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>112</v>
+      <c r="E3" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>17</v>
@@ -2237,26 +2234,26 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>112</v>
+      <c r="E4" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="n"/>
       <c r="H4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>17</v>
@@ -2267,26 +2264,26 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>112</v>
+      <c r="E5" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="n"/>
       <c r="H5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>17</v>
@@ -2297,26 +2294,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>112</v>
+        <v>128</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G6" s="7" t="n"/>
       <c r="H6" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>17</v>
@@ -2327,26 +2324,26 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>112</v>
+      <c r="E7" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="14" t="n"/>
+        <v>132</v>
+      </c>
+      <c r="G7" s="13" t="n"/>
       <c r="H7" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>17</v>
@@ -2356,27 +2353,27 @@
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>133</v>
+      <c r="B8" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="14" t="n"/>
-      <c r="H8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>136</v>
       </c>
+      <c r="F8" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="13" t="n"/>
+      <c r="H8" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="I8" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>17</v>
@@ -2401,7 +2398,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -2410,8 +2407,8 @@
     <col customWidth="1" max="3" min="3" width="14.125"/>
     <col customWidth="1" max="4" min="4" style="2" width="9"/>
     <col customWidth="1" max="5" min="5" style="3" width="22.375"/>
-    <col customWidth="1" max="7" min="6" style="21" width="43.75"/>
-    <col customWidth="1" max="8" min="8" style="21" width="33.75"/>
+    <col customWidth="1" max="7" min="6" style="20" width="43.75"/>
+    <col customWidth="1" max="8" min="8" style="20" width="33.75"/>
     <col customWidth="1" max="9" min="9" style="3" width="44.5"/>
   </cols>
   <sheetData>
@@ -2431,20 +2428,20 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="78.75" r="2" s="1" spans="1:10">
@@ -2460,14 +2457,14 @@
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
+      <c r="E2" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>16</v>
@@ -2479,183 +2476,183 @@
         <v>17</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.5" r="3" s="17" spans="1:10">
-      <c r="A3" s="16" t="n">
+    <row customFormat="1" customHeight="1" ht="40.5" r="3" s="16" spans="1:10">
+      <c r="A3" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="H3" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="4" spans="1:10">
+      <c r="A4" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="4" spans="1:10">
-      <c r="A4" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>140</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="18" t="n"/>
+      <c r="H4" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="5" spans="1:10">
+      <c r="A5" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="19" t="n"/>
-      <c r="H4" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="5" spans="1:10">
-      <c r="A5" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>140</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="18" t="n"/>
+      <c r="H5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="6" spans="1:10">
+      <c r="A6" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="19" t="n"/>
-      <c r="H5" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="6" spans="1:10">
-      <c r="A6" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>140</v>
-      </c>
       <c r="C6" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="18" t="n"/>
+      <c r="H6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="7" spans="1:10">
+      <c r="A7" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" s="19" t="n"/>
-      <c r="H6" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="7" spans="1:10">
-      <c r="A7" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>140</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="18" t="n"/>
+      <c r="H7" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="8" spans="1:10">
+      <c r="A8" s="21" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="19" t="n"/>
-      <c r="H7" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="8" spans="1:10">
-      <c r="A8" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>140</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="19" t="n"/>
+      <c r="E8" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="18" t="n"/>
       <c r="H8" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>17</v>
